--- a/materials/reading-ranger/stimuli/passage-error-excels/set-11a/sparrows_11g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-11a/sparrows_11g.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="315">
   <si>
     <t xml:space="preserve">Sparrows</t>
   </si>
@@ -667,12 +667,6 @@
     <t xml:space="preserve">out</t>
   </si>
   <si>
-    <t xml:space="preserve">me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al.</t>
-  </si>
-  <si>
     <t xml:space="preserve">sig</t>
   </si>
   <si>
@@ -733,10 +727,10 @@
     <t xml:space="preserve">ing</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil</t>
+    <t xml:space="preserve">soi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
   </si>
   <si>
     <t xml:space="preserve">em</t>
@@ -1609,7 +1603,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:YP1003"/>
+  <dimension ref="A1:YO1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1623,6 +1617,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1896,438 +1891,438 @@
       <c r="DV1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="DW1" s="5"/>
+      <c r="DW1" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="DX1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="DY1" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="DZ1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="EA1" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="EA1" s="3"/>
       <c r="EB1" s="3"/>
       <c r="EC1" s="3"/>
-      <c r="ED1" s="3"/>
-      <c r="EE1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="EE1" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="EF1" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="EG1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="EH1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="EI1" s="3"/>
-      <c r="EJ1" s="4" t="s">
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="EL1" s="3"/>
-      <c r="EM1" s="3" t="s">
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="EN1" s="3"/>
-      <c r="EO1" s="3" t="s">
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="EP1" s="3"/>
-      <c r="EQ1" s="3" t="s">
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="ER1" s="3"/>
-      <c r="ES1" s="5" t="s">
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="ET1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="EU1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="EV1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="EW1" s="3"/>
-      <c r="EX1" s="3" t="s">
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="EY1" s="3"/>
-      <c r="EZ1" s="3" t="s">
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="EZ1" s="3"/>
       <c r="FA1" s="3"/>
-      <c r="FB1" s="3"/>
-      <c r="FC1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="FC1" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="FD1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="FE1" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="FE1" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="FF1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="FG1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="FG1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="FH1" s="4" t="s">
-        <v>80</v>
+      <c r="FH1" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="FI1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="FJ1" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="FJ1" s="3"/>
       <c r="FK1" s="3"/>
-      <c r="FL1" s="3"/>
-      <c r="FM1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="FN1" s="5" t="s">
+      <c r="FM1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="FO1" s="5"/>
-      <c r="FP1" s="3" t="s">
+      <c r="FN1" s="5"/>
+      <c r="FO1" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="FP1" s="3"/>
       <c r="FQ1" s="3"/>
       <c r="FR1" s="3"/>
-      <c r="FS1" s="3"/>
+      <c r="FS1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="FT1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="FU1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="FV1" s="3"/>
-      <c r="FW1" s="3" t="s">
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="FX1" s="3"/>
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="FY1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="FZ1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="GA1" s="3"/>
-      <c r="GB1" s="3" t="s">
+      <c r="FZ1" s="3"/>
+      <c r="GA1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="GC1" s="4" t="s">
+      <c r="GB1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="GE1" s="3"/>
-      <c r="GF1" s="3" t="s">
+      <c r="GD1" s="3"/>
+      <c r="GE1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="GG1" s="5" t="s">
+      <c r="GF1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="GH1" s="5"/>
-      <c r="GI1" s="3" t="s">
+      <c r="GG1" s="5"/>
+      <c r="GH1" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="GI1" s="3"/>
       <c r="GJ1" s="3"/>
-      <c r="GK1" s="3"/>
+      <c r="GK1" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="GL1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="GM1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="GN1" s="4" t="s">
+      <c r="GM1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GN1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="GP1" s="3"/>
-      <c r="GQ1" s="4" t="s">
+      <c r="GO1" s="3"/>
+      <c r="GP1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="GR1" s="3"/>
       <c r="GS1" s="3"/>
-      <c r="GT1" s="3"/>
+      <c r="GT1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="GU1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV1" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="GV1" s="3"/>
       <c r="GW1" s="3"/>
       <c r="GX1" s="3"/>
-      <c r="GY1" s="3"/>
+      <c r="GY1" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="GZ1" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="HA1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="HB1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="HC1" s="5" t="s">
+      <c r="HB1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="HD1" s="5"/>
-      <c r="HE1" s="3" t="s">
+      <c r="HC1" s="5"/>
+      <c r="HD1" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="HE1" s="3"/>
       <c r="HF1" s="3"/>
-      <c r="HG1" s="3"/>
-      <c r="HH1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="HH1" s="3"/>
       <c r="HI1" s="3"/>
-      <c r="HJ1" s="3"/>
-      <c r="HK1" s="3" t="s">
+      <c r="HJ1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="HL1" s="3"/>
+      <c r="HK1" s="3"/>
+      <c r="HL1" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="HM1" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="HN1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="HO1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="HP1" s="3"/>
-      <c r="HQ1" s="3" t="s">
+      <c r="HO1" s="3"/>
+      <c r="HP1" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="HQ1" s="3"/>
       <c r="HR1" s="3"/>
       <c r="HS1" s="3"/>
       <c r="HT1" s="3"/>
-      <c r="HU1" s="3"/>
-      <c r="HV1" s="3" t="s">
+      <c r="HU1" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="HV1" s="3"/>
       <c r="HW1" s="3"/>
-      <c r="HX1" s="3"/>
-      <c r="HY1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="HZ1" s="5" t="s">
+      <c r="HY1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="IA1" s="5"/>
-      <c r="IB1" s="3" t="s">
+      <c r="HZ1" s="5"/>
+      <c r="IA1" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="IB1" s="3"/>
       <c r="IC1" s="3"/>
       <c r="ID1" s="3"/>
-      <c r="IE1" s="3"/>
+      <c r="IE1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="IF1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="IG1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="IH1" s="4" t="s">
+      <c r="IG1" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="IH1" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="II1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="IJ1" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="IJ1" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="IK1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="IL1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IL1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="IN1" s="3"/>
+      <c r="IM1" s="3"/>
+      <c r="IN1" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="IO1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="IP1" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="IP1" s="3"/>
       <c r="IQ1" s="3"/>
       <c r="IR1" s="3"/>
       <c r="IS1" s="3"/>
-      <c r="IT1" s="3"/>
-      <c r="IU1" s="5" t="s">
+      <c r="IT1" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="IU1" s="5"/>
       <c r="IV1" s="5"/>
-      <c r="IW1" s="5"/>
-      <c r="IX1" s="3" t="s">
+      <c r="IW1" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="IX1" s="3"/>
       <c r="IY1" s="3"/>
-      <c r="IZ1" s="3"/>
-      <c r="JA1" s="4" t="s">
+      <c r="IZ1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="JB1" s="3" t="s">
+      <c r="JA1" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="JB1" s="3"/>
       <c r="JC1" s="3"/>
       <c r="JD1" s="3"/>
       <c r="JE1" s="3"/>
-      <c r="JF1" s="3"/>
-      <c r="JG1" s="4" t="s">
+      <c r="JF1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="JH1" s="3" t="s">
+      <c r="JG1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="JI1" s="3"/>
-      <c r="JJ1" s="3" t="s">
+      <c r="JH1" s="3"/>
+      <c r="JI1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="JK1" s="3"/>
-      <c r="JL1" s="3" t="s">
+      <c r="JJ1" s="3"/>
+      <c r="JK1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="JM1" s="3"/>
-      <c r="JN1" s="3" t="s">
+      <c r="JL1" s="3"/>
+      <c r="JM1" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="JN1" s="3"/>
       <c r="JO1" s="3"/>
-      <c r="JP1" s="3"/>
-      <c r="JQ1" s="3" t="s">
+      <c r="JP1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="JR1" s="5" t="s">
+      <c r="JQ1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="JS1" s="5"/>
-      <c r="JT1" s="3" t="s">
+      <c r="JR1" s="5"/>
+      <c r="JS1" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="JT1" s="3"/>
       <c r="JU1" s="3"/>
-      <c r="JV1" s="3"/>
-      <c r="JW1" s="4" t="s">
+      <c r="JV1" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="JW1" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="JX1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="JY1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="JZ1" s="3"/>
+      <c r="KA1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="KB1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="KC1" s="3"/>
+      <c r="KD1" s="3"/>
+      <c r="KE1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="KF1" s="3"/>
+      <c r="KG1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="KH1" s="3"/>
+      <c r="KI1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="KJ1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="JY1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="JZ1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="KA1" s="3"/>
-      <c r="KB1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="KC1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="KD1" s="3"/>
-      <c r="KE1" s="3"/>
-      <c r="KF1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="KG1" s="3"/>
-      <c r="KH1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="KI1" s="3"/>
-      <c r="KJ1" s="3" t="s">
+      <c r="KK1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="KL1" s="5"/>
+      <c r="KM1" s="5"/>
+      <c r="KN1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="KO1" s="3"/>
+      <c r="KP1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="KK1" s="3" t="s">
+      <c r="KQ1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="KR1" s="3"/>
+      <c r="KS1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="KT1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="KU1" s="3"/>
+      <c r="KV1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="KW1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="KX1" s="3"/>
+      <c r="KY1" s="3"/>
+      <c r="KZ1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="LA1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="KL1" s="5" t="s">
+      <c r="LB1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="KM1" s="5"/>
-      <c r="KN1" s="5"/>
-      <c r="KO1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="KP1" s="3"/>
-      <c r="KQ1" s="3" t="s">
+      <c r="LC1" s="3"/>
+      <c r="LD1" s="3"/>
+      <c r="LE1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="LF1" s="3"/>
+      <c r="LG1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="KR1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="KS1" s="3"/>
-      <c r="KT1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="KU1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="KV1" s="3"/>
-      <c r="KW1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="KX1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="KY1" s="3"/>
-      <c r="KZ1" s="3"/>
-      <c r="LA1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="LB1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="LC1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="LD1" s="3"/>
-      <c r="LE1" s="3"/>
-      <c r="LF1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="LG1" s="3"/>
-      <c r="LH1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="LI1" s="5" t="s">
+      <c r="LH1" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="LI1" s="5"/>
       <c r="LJ1" s="5"/>
       <c r="LK1" s="5"/>
       <c r="LL1" s="5"/>
       <c r="LM1" s="5"/>
-      <c r="LN1" s="5"/>
+      <c r="LN1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="LO1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="LP1" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="LP1" s="3"/>
       <c r="LQ1" s="3"/>
-      <c r="LR1" s="3"/>
+      <c r="LR1" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="LS1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="LT1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="LT1" s="3"/>
       <c r="LU1" s="3"/>
       <c r="LV1" s="3"/>
       <c r="LW1" s="3"/>
@@ -2336,22 +2331,22 @@
       <c r="LZ1" s="3"/>
       <c r="MA1" s="3"/>
       <c r="MB1" s="3"/>
-      <c r="MC1" s="3"/>
+      <c r="MC1" s="4"/>
       <c r="MD1" s="4"/>
-      <c r="ME1" s="4"/>
+      <c r="ME1" s="3"/>
       <c r="MF1" s="3"/>
       <c r="MG1" s="3"/>
       <c r="MH1" s="3"/>
       <c r="MI1" s="3"/>
       <c r="MJ1" s="3"/>
-      <c r="MK1" s="3"/>
+      <c r="MK1" s="4"/>
       <c r="ML1" s="4"/>
-      <c r="MM1" s="4"/>
+      <c r="MM1" s="3"/>
       <c r="MN1" s="3"/>
-      <c r="MO1" s="3"/>
+      <c r="MO1" s="4"/>
       <c r="MP1" s="4"/>
       <c r="MQ1" s="4"/>
-      <c r="MR1" s="4"/>
+      <c r="MR1" s="3"/>
       <c r="MS1" s="3"/>
       <c r="MT1" s="3"/>
       <c r="MU1" s="3"/>
@@ -2359,15 +2354,15 @@
       <c r="MW1" s="3"/>
       <c r="MX1" s="3"/>
       <c r="MY1" s="3"/>
-      <c r="MZ1" s="3"/>
-      <c r="NA1" s="4"/>
+      <c r="MZ1" s="4"/>
+      <c r="NA1" s="3"/>
       <c r="NB1" s="3"/>
       <c r="NC1" s="3"/>
       <c r="ND1" s="3"/>
       <c r="NE1" s="3"/>
-      <c r="NF1" s="3"/>
+      <c r="NF1" s="4"/>
       <c r="NG1" s="4"/>
-      <c r="NH1" s="4"/>
+      <c r="NH1" s="3"/>
       <c r="NI1" s="3"/>
       <c r="NJ1" s="3"/>
       <c r="NK1" s="3"/>
@@ -2378,110 +2373,110 @@
       <c r="NP1" s="3"/>
       <c r="NQ1" s="3"/>
       <c r="NR1" s="3"/>
-      <c r="NS1" s="3"/>
+      <c r="NS1" s="4"/>
       <c r="NT1" s="4"/>
       <c r="NU1" s="4"/>
       <c r="NV1" s="4"/>
-      <c r="NW1" s="4"/>
+      <c r="NW1" s="3"/>
       <c r="NX1" s="3"/>
       <c r="NY1" s="3"/>
       <c r="NZ1" s="3"/>
       <c r="OA1" s="3"/>
-      <c r="OB1" s="3"/>
+      <c r="OB1" s="4"/>
       <c r="OC1" s="4"/>
-      <c r="OD1" s="4"/>
+      <c r="OD1" s="3"/>
       <c r="OE1" s="3"/>
       <c r="OF1" s="3"/>
       <c r="OG1" s="3"/>
-      <c r="OH1" s="3"/>
+      <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
-      <c r="OK1" s="4"/>
+      <c r="OK1" s="3"/>
       <c r="OL1" s="3"/>
-      <c r="OM1" s="3"/>
-      <c r="ON1" s="4"/>
+      <c r="OM1" s="4"/>
+      <c r="ON1" s="3"/>
       <c r="OO1" s="3"/>
       <c r="OP1" s="3"/>
-      <c r="OQ1" s="3"/>
-      <c r="OR1" s="4"/>
+      <c r="OQ1" s="4"/>
+      <c r="OR1" s="3"/>
       <c r="OS1" s="3"/>
-      <c r="OT1" s="3"/>
+      <c r="OT1" s="4"/>
       <c r="OU1" s="4"/>
       <c r="OV1" s="4"/>
-      <c r="OW1" s="4"/>
+      <c r="OW1" s="3"/>
       <c r="OX1" s="3"/>
       <c r="OY1" s="3"/>
-      <c r="OZ1" s="3"/>
+      <c r="OZ1" s="4"/>
       <c r="PA1" s="4"/>
-      <c r="PB1" s="4"/>
+      <c r="PB1" s="3"/>
       <c r="PC1" s="3"/>
       <c r="PD1" s="3"/>
       <c r="PE1" s="3"/>
       <c r="PF1" s="3"/>
       <c r="PG1" s="3"/>
-      <c r="PH1" s="3"/>
+      <c r="PH1" s="4"/>
       <c r="PI1" s="4"/>
-      <c r="PJ1" s="4"/>
+      <c r="PJ1" s="3"/>
       <c r="PK1" s="3"/>
-      <c r="PL1" s="3"/>
-      <c r="PM1" s="4"/>
+      <c r="PL1" s="4"/>
+      <c r="PM1" s="3"/>
       <c r="PN1" s="3"/>
-      <c r="PO1" s="3"/>
-      <c r="PP1" s="4"/>
+      <c r="PO1" s="4"/>
+      <c r="PP1" s="3"/>
       <c r="PQ1" s="3"/>
       <c r="PR1" s="3"/>
       <c r="PS1" s="3"/>
-      <c r="PT1" s="3"/>
+      <c r="PT1" s="4"/>
       <c r="PU1" s="4"/>
-      <c r="PV1" s="4"/>
+      <c r="PV1" s="3"/>
       <c r="PW1" s="3"/>
       <c r="PX1" s="3"/>
-      <c r="PY1" s="3"/>
+      <c r="PY1" s="4"/>
       <c r="PZ1" s="4"/>
       <c r="QA1" s="4"/>
       <c r="QB1" s="4"/>
-      <c r="QC1" s="4"/>
+      <c r="QC1" s="3"/>
       <c r="QD1" s="3"/>
       <c r="QE1" s="3"/>
       <c r="QF1" s="3"/>
-      <c r="QG1" s="3"/>
-      <c r="QH1" s="4"/>
+      <c r="QG1" s="4"/>
+      <c r="QH1" s="3"/>
       <c r="QI1" s="3"/>
       <c r="QJ1" s="3"/>
       <c r="QK1" s="3"/>
-      <c r="QL1" s="3"/>
+      <c r="QL1" s="4"/>
       <c r="QM1" s="4"/>
-      <c r="QN1" s="4"/>
+      <c r="QN1" s="3"/>
       <c r="QO1" s="3"/>
-      <c r="QP1" s="3"/>
+      <c r="QP1" s="4"/>
       <c r="QQ1" s="4"/>
       <c r="QR1" s="4"/>
       <c r="QS1" s="4"/>
-      <c r="QT1" s="4"/>
+      <c r="QT1" s="3"/>
       <c r="QU1" s="3"/>
       <c r="QV1" s="3"/>
       <c r="QW1" s="3"/>
       <c r="QX1" s="3"/>
-      <c r="QY1" s="3"/>
-      <c r="QZ1" s="4"/>
+      <c r="QY1" s="4"/>
+      <c r="QZ1" s="3"/>
       <c r="RA1" s="3"/>
       <c r="RB1" s="3"/>
-      <c r="RC1" s="3"/>
-      <c r="RD1" s="4"/>
+      <c r="RC1" s="4"/>
+      <c r="RD1" s="3"/>
       <c r="RE1" s="3"/>
       <c r="RF1" s="3"/>
-      <c r="RG1" s="3"/>
-      <c r="RH1" s="4"/>
+      <c r="RG1" s="4"/>
+      <c r="RH1" s="3"/>
       <c r="RI1" s="3"/>
-      <c r="RJ1" s="3"/>
-      <c r="RK1" s="4"/>
+      <c r="RJ1" s="4"/>
+      <c r="RK1" s="3"/>
       <c r="RL1" s="3"/>
       <c r="RM1" s="3"/>
       <c r="RN1" s="3"/>
       <c r="RO1" s="3"/>
       <c r="RP1" s="3"/>
-      <c r="RQ1" s="3"/>
-      <c r="RR1" s="4"/>
+      <c r="RQ1" s="4"/>
+      <c r="RR1" s="3"/>
       <c r="RS1" s="3"/>
       <c r="RT1" s="3"/>
       <c r="RU1" s="3"/>
@@ -2492,9 +2487,9 @@
       <c r="RZ1" s="3"/>
       <c r="SA1" s="3"/>
       <c r="SB1" s="3"/>
-      <c r="SC1" s="3"/>
+      <c r="SC1" s="4"/>
       <c r="SD1" s="4"/>
-      <c r="SE1" s="4"/>
+      <c r="SE1" s="3"/>
       <c r="SF1" s="3"/>
       <c r="SG1" s="3"/>
       <c r="SH1" s="3"/>
@@ -2504,7 +2499,7 @@
       <c r="SL1" s="3"/>
       <c r="SM1" s="3"/>
       <c r="SN1" s="3"/>
-      <c r="SO1" s="3"/>
+      <c r="SO1" s="4"/>
       <c r="SP1" s="4"/>
       <c r="SQ1" s="4"/>
       <c r="SR1" s="4"/>
@@ -2661,7 +2656,6 @@
       <c r="YM1" s="4"/>
       <c r="YN1" s="4"/>
       <c r="YO1" s="4"/>
-      <c r="YP1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
@@ -3038,629 +3032,627 @@
         <v>61</v>
       </c>
       <c r="DV2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="DW2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="DX2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="DY2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="DZ2" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="DW2" s="8" t="s">
+      <c r="EA2" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="DX2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="DY2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="DZ2" s="7" t="s">
+      <c r="EB2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="EC2" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="ED2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="EE2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="EF2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="EG2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="EI2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="EJ2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="EL2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="EM2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="EN2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="EO2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="EP2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="ER2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="ES2" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="ET2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="EU2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="EV2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EW2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="EX2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="EY2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="EZ2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="FA2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="FB2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="FC2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="FD2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="FE2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="FF2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="FG2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="FH2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="FI2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="FJ2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="FK2" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="FL2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="FM2" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="FN2" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="FO2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="FP2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="FQ2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="FR2" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="FS2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="FT2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="FU2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="FV2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="FW2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="FX2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="FY2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="FZ2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="GA2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="GB2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="GC2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="GD2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="GE2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="GF2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="GG2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="GH2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GI2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="GK2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="GL2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="GM2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="GN2" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="GO2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="GP2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="GQ2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="GR2" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="GS2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="GT2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="GU2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="EA2" s="7" t="s">
+      <c r="GV2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="GW2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="GX2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="GY2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="GZ2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="HA2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="HB2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="HC2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="HD2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HE2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="HF2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="HG2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="HH2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="HI2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="HJ2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="HK2" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="HL2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="HM2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="HN2" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="HO2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="HP2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="HQ2" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="HR2" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="HS2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="HT2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="HU2" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="HV2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="HW2" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="HX2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="HZ2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="IA2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="IB2" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="IC2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="ID2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="IE2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="IF2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="IG2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="IH2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="II2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="IJ2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="IK2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="IL2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="IM2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="IN2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="IO2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="IP2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="IQ2" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="EB2" s="7" t="s">
+      <c r="IR2" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="EC2" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="ED2" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EE2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="EF2" s="7" t="s">
+      <c r="IS2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="IT2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="IU2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="IV2" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="IW2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="IX2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="IY2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="IZ2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="JA2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="JB2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="JC2" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="JD2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="JE2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="JF2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="JG2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="JH2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="JI2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="JJ2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="JK2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="JL2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="JM2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="JN2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="JO2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="JP2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="JQ2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="JR2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="JS2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="JT2" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="JU2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="JV2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="EG2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="EH2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="EI2" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="EJ2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="EK2" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="EL2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="EM2" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="EN2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="EO2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="EP2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="EQ2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="ER2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="ES2" s="7" t="s">
+      <c r="JW2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="JX2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="JY2" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="JZ2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="KA2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="KB2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="KC2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="KD2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="KE2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="KF2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="KG2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="KH2" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="KI2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="KJ2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="KK2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="ET2" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="EU2" s="7" t="s">
+      <c r="KL2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="KM2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="KN2" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="KO2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="KP2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="KQ2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="KR2" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="KS2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="EV2" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="EW2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="EX2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="EY2" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="EZ2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="FA2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="FB2" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="FC2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="FD2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="FE2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="FF2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="FG2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="FH2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="FI2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="FJ2" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="FK2" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="FL2" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="FM2" s="7" t="s">
+      <c r="KT2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="KU2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="KV2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="KW2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="KX2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="KY2" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="KZ2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="LA2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="FN2" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="FO2" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="FP2" s="7" t="s">
+      <c r="LB2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="LC2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="LD2" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="LE2" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="LF2" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="LG2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="LH2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="LI2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="LJ2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="LK2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="LL2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="LM2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="LN2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="LO2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="LP2" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="FQ2" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="FR2" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="FS2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="FT2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="FU2" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="FV2" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="FW2" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="FX2" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="FY2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="FZ2" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="GA2" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="GB2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="GC2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="GD2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GE2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="GF2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="GG2" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="GH2" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="GI2" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="GJ2" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="GK2" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="GL2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="GM2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="GN2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="GO2" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="GP2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="GQ2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="GR2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="GS2" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="GT2" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="GU2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="GW2" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="GX2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="GY2" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="GZ2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="HA2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="HB2" s="7" t="s">
+      <c r="LQ2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="LR2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="HC2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="HD2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="HE2" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="HF2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="HG2" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="HH2" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="HI2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="HJ2" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="HK2" s="7" t="s">
+      <c r="LS2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="HL2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="HM2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="HN2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="HO2" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="HP2" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="HQ2" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="HR2" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="HS2" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="HT2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="HU2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="HV2" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="HW2" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="HX2" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="HY2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="HZ2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="IA2" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="IB2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="IC2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="ID2" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="IE2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="IF2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="IG2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="IH2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="II2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="IJ2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="IK2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="IL2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="IM2" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="IN2" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="IO2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="IP2" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="IQ2" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="IR2" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="IS2" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="IT2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="IU2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="IV2" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="IW2" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="IX2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="IY2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="IZ2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="JA2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="JB2" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="JC2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="JD2" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="JE2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="JF2" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="JG2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="JH2" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="JI2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="JJ2" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="JK2" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="JL2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JM2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="JN2" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="JO2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="JP2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="JQ2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="JR2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="JS2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="JT2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="JU2" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="JV2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="JW2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="JX2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="JY2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="JZ2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="KA2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="KB2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="KC2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="KD2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="KE2" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="KF2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="KG2" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="KH2" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="KI2" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="KJ2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="KK2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="KL2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="KM2" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="KN2" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="KO2" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="KP2" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="KQ2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="KR2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="KS2" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="KT2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="KU2" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="KV2" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="KW2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="KX2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="KY2" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="KZ2" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="LA2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="LB2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="LC2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="LD2" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="LE2" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="LF2" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="LG2" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="LH2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="LI2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="LJ2" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="LK2" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="LL2" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="LM2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="LN2" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="LO2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="LP2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="LQ2" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="LR2" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="LS2" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="LT2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="LU2" s="7" t="s">
         <v>158</v>
       </c>
+      <c r="LU2" s="7"/>
       <c r="LV2" s="7"/>
       <c r="LW2" s="7"/>
       <c r="LX2" s="7"/>
@@ -3698,11 +3690,10 @@
       <c r="ND2" s="7"/>
       <c r="NE2" s="7"/>
       <c r="NF2" s="7"/>
-      <c r="NG2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
@@ -4079,7 +4070,7 @@
       <c r="DV3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW3" s="11" t="n">
+      <c r="DW3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX3" s="10" t="n">
@@ -4145,10 +4136,10 @@
       <c r="ER3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" s="11" t="n">
+      <c r="ES3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU3" s="10" t="n">
@@ -4208,10 +4199,10 @@
       <c r="FM3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" s="11" t="n">
+      <c r="FN3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP3" s="10" t="n">
@@ -4265,10 +4256,10 @@
       <c r="GF3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" s="11" t="n">
+      <c r="GG3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI3" s="10" t="n">
@@ -4331,10 +4322,10 @@
       <c r="HB3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" s="11" t="n">
+      <c r="HC3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE3" s="10" t="n">
@@ -4400,10 +4391,10 @@
       <c r="HY3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA3" s="11" t="n">
+      <c r="HZ3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB3" s="10" t="n">
@@ -4466,10 +4457,10 @@
       <c r="IU3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW3" s="11" t="n">
+      <c r="IV3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX3" s="10" t="n">
@@ -4532,10 +4523,10 @@
       <c r="JQ3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS3" s="11" t="n">
+      <c r="JR3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT3" s="10" t="n">
@@ -4595,10 +4586,10 @@
       <c r="KL3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN3" s="11" t="n">
+      <c r="KM3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO3" s="10" t="n">
@@ -4673,10 +4664,10 @@
       <c r="LL3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN3" s="11" t="n">
+      <c r="LM3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO3" s="10" t="n">
@@ -4697,9 +4688,7 @@
       <c r="LT3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU3" s="10"/>
       <c r="LV3" s="10"/>
       <c r="LW3" s="10"/>
       <c r="LX3" s="10"/>
@@ -4729,7 +4718,7 @@
       <c r="MV3" s="10"/>
       <c r="MW3" s="10"/>
       <c r="MX3" s="10"/>
-      <c r="MY3" s="10"/>
+      <c r="MY3" s="12"/>
       <c r="MZ3" s="12"/>
       <c r="NA3" s="12"/>
       <c r="NB3" s="12"/>
@@ -4737,11 +4726,10 @@
       <c r="ND3" s="12"/>
       <c r="NE3" s="12"/>
       <c r="NF3" s="12"/>
-      <c r="NG3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
@@ -5118,7 +5106,7 @@
       <c r="DV4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW4" s="11" t="n">
+      <c r="DW4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX4" s="10" t="n">
@@ -5184,10 +5172,10 @@
       <c r="ER4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" s="11" t="n">
+      <c r="ES4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU4" s="10" t="n">
@@ -5247,10 +5235,10 @@
       <c r="FM4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" s="11" t="n">
+      <c r="FN4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP4" s="10" t="n">
@@ -5304,10 +5292,10 @@
       <c r="GF4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" s="11" t="n">
+      <c r="GG4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI4" s="10" t="n">
@@ -5370,10 +5358,10 @@
       <c r="HB4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD4" s="11" t="n">
+      <c r="HC4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE4" s="10" t="n">
@@ -5439,10 +5427,10 @@
       <c r="HY4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA4" s="11" t="n">
+      <c r="HZ4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB4" s="10" t="n">
@@ -5505,10 +5493,10 @@
       <c r="IU4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW4" s="11" t="n">
+      <c r="IV4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX4" s="10" t="n">
@@ -5571,10 +5559,10 @@
       <c r="JQ4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS4" s="11" t="n">
+      <c r="JR4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT4" s="10" t="n">
@@ -5634,10 +5622,10 @@
       <c r="KL4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN4" s="11" t="n">
+      <c r="KM4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO4" s="10" t="n">
@@ -5712,10 +5700,10 @@
       <c r="LL4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN4" s="11" t="n">
+      <c r="LM4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO4" s="10" t="n">
@@ -5736,9 +5724,7 @@
       <c r="LT4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU4" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU4" s="10"/>
       <c r="LV4" s="10"/>
       <c r="LW4" s="10"/>
       <c r="LX4" s="10"/>
@@ -5768,7 +5754,7 @@
       <c r="MV4" s="10"/>
       <c r="MW4" s="10"/>
       <c r="MX4" s="10"/>
-      <c r="MY4" s="10"/>
+      <c r="MY4" s="12"/>
       <c r="MZ4" s="12"/>
       <c r="NA4" s="12"/>
       <c r="NB4" s="12"/>
@@ -5776,11 +5762,10 @@
       <c r="ND4" s="12"/>
       <c r="NE4" s="12"/>
       <c r="NF4" s="12"/>
-      <c r="NG4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
@@ -6157,7 +6142,7 @@
       <c r="DV5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW5" s="11" t="n">
+      <c r="DW5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX5" s="10" t="n">
@@ -6223,10 +6208,10 @@
       <c r="ER5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="11" t="n">
+      <c r="ES5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU5" s="10" t="n">
@@ -6286,10 +6271,10 @@
       <c r="FM5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" s="11" t="n">
+      <c r="FN5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP5" s="10" t="n">
@@ -6343,10 +6328,10 @@
       <c r="GF5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" s="11" t="n">
+      <c r="GG5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI5" s="10" t="n">
@@ -6409,10 +6394,10 @@
       <c r="HB5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD5" s="11" t="n">
+      <c r="HC5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE5" s="10" t="n">
@@ -6478,10 +6463,10 @@
       <c r="HY5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA5" s="11" t="n">
+      <c r="HZ5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB5" s="10" t="n">
@@ -6544,10 +6529,10 @@
       <c r="IU5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW5" s="11" t="n">
+      <c r="IV5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX5" s="10" t="n">
@@ -6610,10 +6595,10 @@
       <c r="JQ5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS5" s="11" t="n">
+      <c r="JR5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT5" s="10" t="n">
@@ -6673,10 +6658,10 @@
       <c r="KL5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN5" s="11" t="n">
+      <c r="KM5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO5" s="10" t="n">
@@ -6751,10 +6736,10 @@
       <c r="LL5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN5" s="11" t="n">
+      <c r="LM5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO5" s="10" t="n">
@@ -6775,9 +6760,7 @@
       <c r="LT5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU5" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU5" s="10"/>
       <c r="LV5" s="10"/>
       <c r="LW5" s="10"/>
       <c r="LX5" s="10"/>
@@ -6807,7 +6790,7 @@
       <c r="MV5" s="10"/>
       <c r="MW5" s="10"/>
       <c r="MX5" s="10"/>
-      <c r="MY5" s="10"/>
+      <c r="MY5" s="12"/>
       <c r="MZ5" s="12"/>
       <c r="NA5" s="12"/>
       <c r="NB5" s="12"/>
@@ -6815,11 +6798,10 @@
       <c r="ND5" s="12"/>
       <c r="NE5" s="12"/>
       <c r="NF5" s="12"/>
-      <c r="NG5" s="12"/>
     </row>
     <row r="6" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>0</v>
@@ -7196,7 +7178,7 @@
       <c r="DV6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="DW6" s="16" t="n">
+      <c r="DW6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="DX6" s="15" t="n">
@@ -7262,10 +7244,10 @@
       <c r="ER6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="ES6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" s="16" t="n">
+      <c r="ES6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="EU6" s="15" t="n">
@@ -7325,10 +7307,10 @@
       <c r="FM6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="FN6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" s="16" t="n">
+      <c r="FN6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="FP6" s="15" t="n">
@@ -7382,10 +7364,10 @@
       <c r="GF6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="GG6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH6" s="16" t="n">
+      <c r="GG6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="GI6" s="15" t="n">
@@ -7448,10 +7430,10 @@
       <c r="HB6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="HC6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD6" s="16" t="n">
+      <c r="HC6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="HE6" s="15" t="n">
@@ -7517,10 +7499,10 @@
       <c r="HY6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="HZ6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA6" s="16" t="n">
+      <c r="HZ6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="IB6" s="15" t="n">
@@ -7583,10 +7565,10 @@
       <c r="IU6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="IV6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW6" s="16" t="n">
+      <c r="IV6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="IX6" s="15" t="n">
@@ -7649,10 +7631,10 @@
       <c r="JQ6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="JR6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS6" s="16" t="n">
+      <c r="JR6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="JT6" s="15" t="n">
@@ -7712,10 +7694,10 @@
       <c r="KL6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="KM6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN6" s="16" t="n">
+      <c r="KM6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="KO6" s="15" t="n">
@@ -7790,10 +7772,10 @@
       <c r="LL6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="LM6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN6" s="16" t="n">
+      <c r="LM6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="LO6" s="15" t="n">
@@ -7814,9 +7796,7 @@
       <c r="LT6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="LU6" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU6" s="15"/>
       <c r="LV6" s="15"/>
       <c r="LW6" s="15"/>
       <c r="LX6" s="15"/>
@@ -7846,7 +7826,7 @@
       <c r="MV6" s="15"/>
       <c r="MW6" s="15"/>
       <c r="MX6" s="15"/>
-      <c r="MY6" s="15"/>
+      <c r="MY6" s="17"/>
       <c r="MZ6" s="17"/>
       <c r="NA6" s="17"/>
       <c r="NB6" s="17"/>
@@ -7854,11 +7834,10 @@
       <c r="ND6" s="17"/>
       <c r="NE6" s="17"/>
       <c r="NF6" s="17"/>
-      <c r="NG6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0</v>
@@ -8235,7 +8214,7 @@
       <c r="DV7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW7" s="11" t="n">
+      <c r="DW7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX7" s="10" t="n">
@@ -8301,10 +8280,10 @@
       <c r="ER7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET7" s="11" t="n">
+      <c r="ES7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU7" s="10" t="n">
@@ -8364,10 +8343,10 @@
       <c r="FM7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" s="11" t="n">
+      <c r="FN7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP7" s="10" t="n">
@@ -8421,10 +8400,10 @@
       <c r="GF7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH7" s="11" t="n">
+      <c r="GG7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI7" s="10" t="n">
@@ -8487,10 +8466,10 @@
       <c r="HB7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD7" s="11" t="n">
+      <c r="HC7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE7" s="10" t="n">
@@ -8556,10 +8535,10 @@
       <c r="HY7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA7" s="11" t="n">
+      <c r="HZ7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB7" s="10" t="n">
@@ -8622,10 +8601,10 @@
       <c r="IU7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW7" s="11" t="n">
+      <c r="IV7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX7" s="10" t="n">
@@ -8688,10 +8667,10 @@
       <c r="JQ7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS7" s="11" t="n">
+      <c r="JR7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT7" s="10" t="n">
@@ -8751,10 +8730,10 @@
       <c r="KL7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN7" s="11" t="n">
+      <c r="KM7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO7" s="10" t="n">
@@ -8829,10 +8808,10 @@
       <c r="LL7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN7" s="11" t="n">
+      <c r="LM7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO7" s="10" t="n">
@@ -8853,9 +8832,7 @@
       <c r="LT7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU7" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU7" s="10"/>
       <c r="LV7" s="10"/>
       <c r="LW7" s="10"/>
       <c r="LX7" s="10"/>
@@ -8885,7 +8862,7 @@
       <c r="MV7" s="10"/>
       <c r="MW7" s="10"/>
       <c r="MX7" s="10"/>
-      <c r="MY7" s="10"/>
+      <c r="MY7" s="12"/>
       <c r="MZ7" s="12"/>
       <c r="NA7" s="12"/>
       <c r="NB7" s="12"/>
@@ -8893,11 +8870,10 @@
       <c r="ND7" s="12"/>
       <c r="NE7" s="12"/>
       <c r="NF7" s="12"/>
-      <c r="NG7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>0</v>
@@ -9274,7 +9250,7 @@
       <c r="DV8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW8" s="11" t="n">
+      <c r="DW8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX8" s="10" t="n">
@@ -9340,10 +9316,10 @@
       <c r="ER8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET8" s="11" t="n">
+      <c r="ES8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU8" s="10" t="n">
@@ -9403,10 +9379,10 @@
       <c r="FM8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" s="11" t="n">
+      <c r="FN8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP8" s="10" t="n">
@@ -9460,10 +9436,10 @@
       <c r="GF8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH8" s="11" t="n">
+      <c r="GG8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI8" s="10" t="n">
@@ -9526,10 +9502,10 @@
       <c r="HB8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD8" s="11" t="n">
+      <c r="HC8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE8" s="10" t="n">
@@ -9595,10 +9571,10 @@
       <c r="HY8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA8" s="11" t="n">
+      <c r="HZ8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB8" s="10" t="n">
@@ -9661,10 +9637,10 @@
       <c r="IU8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW8" s="11" t="n">
+      <c r="IV8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX8" s="10" t="n">
@@ -9727,10 +9703,10 @@
       <c r="JQ8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS8" s="11" t="n">
+      <c r="JR8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT8" s="10" t="n">
@@ -9790,10 +9766,10 @@
       <c r="KL8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN8" s="11" t="n">
+      <c r="KM8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO8" s="10" t="n">
@@ -9868,10 +9844,10 @@
       <c r="LL8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN8" s="11" t="n">
+      <c r="LM8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO8" s="10" t="n">
@@ -9892,9 +9868,7 @@
       <c r="LT8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU8" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU8" s="10"/>
       <c r="LV8" s="10"/>
       <c r="LW8" s="10"/>
       <c r="LX8" s="10"/>
@@ -9924,7 +9898,7 @@
       <c r="MV8" s="10"/>
       <c r="MW8" s="10"/>
       <c r="MX8" s="10"/>
-      <c r="MY8" s="10"/>
+      <c r="MY8" s="12"/>
       <c r="MZ8" s="12"/>
       <c r="NA8" s="12"/>
       <c r="NB8" s="12"/>
@@ -9932,11 +9906,10 @@
       <c r="ND8" s="12"/>
       <c r="NE8" s="12"/>
       <c r="NF8" s="12"/>
-      <c r="NG8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
@@ -10313,7 +10286,7 @@
       <c r="DV9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW9" s="11" t="n">
+      <c r="DW9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX9" s="10" t="n">
@@ -10379,10 +10352,10 @@
       <c r="ER9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET9" s="11" t="n">
+      <c r="ES9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU9" s="10" t="n">
@@ -10442,10 +10415,10 @@
       <c r="FM9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="11" t="n">
+      <c r="FN9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP9" s="10" t="n">
@@ -10499,10 +10472,10 @@
       <c r="GF9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH9" s="11" t="n">
+      <c r="GG9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI9" s="10" t="n">
@@ -10565,10 +10538,10 @@
       <c r="HB9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD9" s="11" t="n">
+      <c r="HC9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE9" s="10" t="n">
@@ -10634,10 +10607,10 @@
       <c r="HY9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA9" s="11" t="n">
+      <c r="HZ9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB9" s="10" t="n">
@@ -10700,10 +10673,10 @@
       <c r="IU9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW9" s="11" t="n">
+      <c r="IV9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX9" s="10" t="n">
@@ -10766,10 +10739,10 @@
       <c r="JQ9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS9" s="11" t="n">
+      <c r="JR9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT9" s="10" t="n">
@@ -10829,10 +10802,10 @@
       <c r="KL9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN9" s="11" t="n">
+      <c r="KM9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO9" s="10" t="n">
@@ -10907,10 +10880,10 @@
       <c r="LL9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN9" s="11" t="n">
+      <c r="LM9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO9" s="10" t="n">
@@ -10931,9 +10904,7 @@
       <c r="LT9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU9" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU9" s="10"/>
       <c r="LV9" s="10"/>
       <c r="LW9" s="10"/>
       <c r="LX9" s="10"/>
@@ -10963,7 +10934,7 @@
       <c r="MV9" s="10"/>
       <c r="MW9" s="10"/>
       <c r="MX9" s="10"/>
-      <c r="MY9" s="10"/>
+      <c r="MY9" s="12"/>
       <c r="MZ9" s="12"/>
       <c r="NA9" s="12"/>
       <c r="NB9" s="12"/>
@@ -10971,11 +10942,10 @@
       <c r="ND9" s="12"/>
       <c r="NE9" s="12"/>
       <c r="NF9" s="12"/>
-      <c r="NG9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
@@ -11352,7 +11322,7 @@
       <c r="DV10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW10" s="11" t="n">
+      <c r="DW10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" s="10" t="n">
@@ -11418,10 +11388,10 @@
       <c r="ER10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" s="11" t="n">
+      <c r="ES10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU10" s="10" t="n">
@@ -11481,10 +11451,10 @@
       <c r="FM10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" s="11" t="n">
+      <c r="FN10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP10" s="10" t="n">
@@ -11538,10 +11508,10 @@
       <c r="GF10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH10" s="11" t="n">
+      <c r="GG10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI10" s="10" t="n">
@@ -11604,10 +11574,10 @@
       <c r="HB10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD10" s="11" t="n">
+      <c r="HC10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE10" s="10" t="n">
@@ -11673,10 +11643,10 @@
       <c r="HY10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA10" s="11" t="n">
+      <c r="HZ10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB10" s="10" t="n">
@@ -11739,10 +11709,10 @@
       <c r="IU10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW10" s="11" t="n">
+      <c r="IV10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX10" s="10" t="n">
@@ -11805,10 +11775,10 @@
       <c r="JQ10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS10" s="11" t="n">
+      <c r="JR10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT10" s="10" t="n">
@@ -11868,10 +11838,10 @@
       <c r="KL10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN10" s="11" t="n">
+      <c r="KM10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO10" s="10" t="n">
@@ -11946,10 +11916,10 @@
       <c r="LL10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN10" s="11" t="n">
+      <c r="LM10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO10" s="10" t="n">
@@ -11970,9 +11940,7 @@
       <c r="LT10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU10" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU10" s="10"/>
       <c r="LV10" s="10"/>
       <c r="LW10" s="10"/>
       <c r="LX10" s="10"/>
@@ -12002,7 +11970,7 @@
       <c r="MV10" s="10"/>
       <c r="MW10" s="10"/>
       <c r="MX10" s="10"/>
-      <c r="MY10" s="10"/>
+      <c r="MY10" s="12"/>
       <c r="MZ10" s="12"/>
       <c r="NA10" s="12"/>
       <c r="NB10" s="12"/>
@@ -12010,11 +11978,10 @@
       <c r="ND10" s="12"/>
       <c r="NE10" s="12"/>
       <c r="NF10" s="12"/>
-      <c r="NG10" s="12"/>
     </row>
     <row r="11" s="23" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B11" s="20" t="n">
         <v>0</v>
@@ -12391,7 +12358,7 @@
       <c r="DV11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="DW11" s="21" t="n">
+      <c r="DW11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="DX11" s="20" t="n">
@@ -12457,10 +12424,10 @@
       <c r="ER11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="ES11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" s="21" t="n">
+      <c r="ES11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="EU11" s="20" t="n">
@@ -12520,10 +12487,10 @@
       <c r="FM11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="FN11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" s="21" t="n">
+      <c r="FN11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="FP11" s="20" t="n">
@@ -12577,10 +12544,10 @@
       <c r="GF11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="GG11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH11" s="21" t="n">
+      <c r="GG11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="GI11" s="20" t="n">
@@ -12643,10 +12610,10 @@
       <c r="HB11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="HC11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD11" s="21" t="n">
+      <c r="HC11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="HE11" s="20" t="n">
@@ -12712,10 +12679,10 @@
       <c r="HY11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="HZ11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA11" s="21" t="n">
+      <c r="HZ11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="IB11" s="20" t="n">
@@ -12778,10 +12745,10 @@
       <c r="IU11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="IV11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW11" s="21" t="n">
+      <c r="IV11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="IX11" s="20" t="n">
@@ -12844,10 +12811,10 @@
       <c r="JQ11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="JR11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS11" s="21" t="n">
+      <c r="JR11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="JT11" s="20" t="n">
@@ -12907,10 +12874,10 @@
       <c r="KL11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="KM11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN11" s="21" t="n">
+      <c r="KM11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="KO11" s="20" t="n">
@@ -12985,10 +12952,10 @@
       <c r="LL11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="LM11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN11" s="21" t="n">
+      <c r="LM11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="LO11" s="20" t="n">
@@ -13009,9 +12976,7 @@
       <c r="LT11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="LU11" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU11" s="20"/>
       <c r="LV11" s="20"/>
       <c r="LW11" s="20"/>
       <c r="LX11" s="20"/>
@@ -13041,7 +13006,7 @@
       <c r="MV11" s="20"/>
       <c r="MW11" s="20"/>
       <c r="MX11" s="20"/>
-      <c r="MY11" s="20"/>
+      <c r="MY11" s="22"/>
       <c r="MZ11" s="22"/>
       <c r="NA11" s="22"/>
       <c r="NB11" s="22"/>
@@ -13049,11 +13014,10 @@
       <c r="ND11" s="22"/>
       <c r="NE11" s="22"/>
       <c r="NF11" s="22"/>
-      <c r="NG11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0</v>
@@ -13430,7 +13394,7 @@
       <c r="DV12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW12" s="11" t="n">
+      <c r="DW12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX12" s="10" t="n">
@@ -13496,10 +13460,10 @@
       <c r="ER12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" s="11" t="n">
+      <c r="ES12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU12" s="10" t="n">
@@ -13559,10 +13523,10 @@
       <c r="FM12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" s="11" t="n">
+      <c r="FN12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP12" s="10" t="n">
@@ -13616,10 +13580,10 @@
       <c r="GF12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH12" s="11" t="n">
+      <c r="GG12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI12" s="10" t="n">
@@ -13682,10 +13646,10 @@
       <c r="HB12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD12" s="11" t="n">
+      <c r="HC12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE12" s="10" t="n">
@@ -13751,10 +13715,10 @@
       <c r="HY12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA12" s="11" t="n">
+      <c r="HZ12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB12" s="10" t="n">
@@ -13817,10 +13781,10 @@
       <c r="IU12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW12" s="11" t="n">
+      <c r="IV12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX12" s="10" t="n">
@@ -13883,10 +13847,10 @@
       <c r="JQ12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS12" s="11" t="n">
+      <c r="JR12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT12" s="10" t="n">
@@ -13946,10 +13910,10 @@
       <c r="KL12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN12" s="11" t="n">
+      <c r="KM12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO12" s="10" t="n">
@@ -14024,10 +13988,10 @@
       <c r="LL12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN12" s="11" t="n">
+      <c r="LM12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO12" s="10" t="n">
@@ -14048,9 +14012,7 @@
       <c r="LT12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU12" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU12" s="10"/>
       <c r="LV12" s="10"/>
       <c r="LW12" s="10"/>
       <c r="LX12" s="10"/>
@@ -14080,7 +14042,7 @@
       <c r="MV12" s="10"/>
       <c r="MW12" s="10"/>
       <c r="MX12" s="10"/>
-      <c r="MY12" s="10"/>
+      <c r="MY12" s="12"/>
       <c r="MZ12" s="12"/>
       <c r="NA12" s="12"/>
       <c r="NB12" s="12"/>
@@ -14088,11 +14050,10 @@
       <c r="ND12" s="12"/>
       <c r="NE12" s="12"/>
       <c r="NF12" s="12"/>
-      <c r="NG12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
@@ -14469,7 +14430,7 @@
       <c r="DV13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW13" s="11" t="n">
+      <c r="DW13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX13" s="10" t="n">
@@ -14535,10 +14496,10 @@
       <c r="ER13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET13" s="11" t="n">
+      <c r="ES13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU13" s="10" t="n">
@@ -14598,10 +14559,10 @@
       <c r="FM13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO13" s="11" t="n">
+      <c r="FN13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP13" s="10" t="n">
@@ -14655,10 +14616,10 @@
       <c r="GF13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH13" s="11" t="n">
+      <c r="GG13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI13" s="10" t="n">
@@ -14721,10 +14682,10 @@
       <c r="HB13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD13" s="11" t="n">
+      <c r="HC13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE13" s="10" t="n">
@@ -14790,10 +14751,10 @@
       <c r="HY13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA13" s="11" t="n">
+      <c r="HZ13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB13" s="10" t="n">
@@ -14856,10 +14817,10 @@
       <c r="IU13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW13" s="11" t="n">
+      <c r="IV13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX13" s="10" t="n">
@@ -14922,10 +14883,10 @@
       <c r="JQ13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS13" s="11" t="n">
+      <c r="JR13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT13" s="10" t="n">
@@ -14985,10 +14946,10 @@
       <c r="KL13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN13" s="11" t="n">
+      <c r="KM13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO13" s="10" t="n">
@@ -15063,10 +15024,10 @@
       <c r="LL13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN13" s="11" t="n">
+      <c r="LM13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO13" s="10" t="n">
@@ -15087,9 +15048,7 @@
       <c r="LT13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU13" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU13" s="10"/>
       <c r="LV13" s="10"/>
       <c r="LW13" s="10"/>
       <c r="LX13" s="10"/>
@@ -15119,7 +15078,7 @@
       <c r="MV13" s="10"/>
       <c r="MW13" s="10"/>
       <c r="MX13" s="10"/>
-      <c r="MY13" s="10"/>
+      <c r="MY13" s="12"/>
       <c r="MZ13" s="12"/>
       <c r="NA13" s="12"/>
       <c r="NB13" s="12"/>
@@ -15127,11 +15086,10 @@
       <c r="ND13" s="12"/>
       <c r="NE13" s="12"/>
       <c r="NF13" s="12"/>
-      <c r="NG13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
@@ -15508,7 +15466,7 @@
       <c r="DV14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="DW14" s="11" t="n">
+      <c r="DW14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="DX14" s="10" t="n">
@@ -15574,10 +15532,10 @@
       <c r="ER14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="ES14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET14" s="11" t="n">
+      <c r="ES14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="EU14" s="10" t="n">
@@ -15637,10 +15595,10 @@
       <c r="FM14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FN14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" s="11" t="n">
+      <c r="FN14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="FP14" s="10" t="n">
@@ -15694,10 +15652,10 @@
       <c r="GF14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GG14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH14" s="11" t="n">
+      <c r="GG14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="GI14" s="10" t="n">
@@ -15760,10 +15718,10 @@
       <c r="HB14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HC14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD14" s="11" t="n">
+      <c r="HC14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="HE14" s="10" t="n">
@@ -15829,10 +15787,10 @@
       <c r="HY14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HZ14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA14" s="11" t="n">
+      <c r="HZ14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IB14" s="10" t="n">
@@ -15895,10 +15853,10 @@
       <c r="IU14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IV14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW14" s="11" t="n">
+      <c r="IV14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="IX14" s="10" t="n">
@@ -15961,10 +15919,10 @@
       <c r="JQ14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JR14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS14" s="11" t="n">
+      <c r="JR14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JT14" s="10" t="n">
@@ -16024,10 +15982,10 @@
       <c r="KL14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KM14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN14" s="11" t="n">
+      <c r="KM14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KO14" s="10" t="n">
@@ -16102,10 +16060,10 @@
       <c r="LL14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LM14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN14" s="11" t="n">
+      <c r="LM14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LO14" s="10" t="n">
@@ -16126,9 +16084,7 @@
       <c r="LT14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LU14" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="LU14" s="10"/>
       <c r="LV14" s="10"/>
       <c r="LW14" s="10"/>
       <c r="LX14" s="10"/>
@@ -16158,7 +16114,7 @@
       <c r="MV14" s="10"/>
       <c r="MW14" s="10"/>
       <c r="MX14" s="10"/>
-      <c r="MY14" s="10"/>
+      <c r="MY14" s="12"/>
       <c r="MZ14" s="12"/>
       <c r="NA14" s="12"/>
       <c r="NB14" s="12"/>
@@ -16166,11 +16122,10 @@
       <c r="ND14" s="12"/>
       <c r="NE14" s="12"/>
       <c r="NF14" s="12"/>
-      <c r="NG14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -16297,7 +16252,7 @@
       <c r="DT15" s="12"/>
       <c r="DU15" s="12"/>
       <c r="DV15" s="12"/>
-      <c r="DW15" s="24"/>
+      <c r="DW15" s="12"/>
       <c r="DX15" s="12"/>
       <c r="DY15" s="12"/>
       <c r="DZ15" s="12"/>
@@ -16319,8 +16274,8 @@
       <c r="EP15" s="12"/>
       <c r="EQ15" s="12"/>
       <c r="ER15" s="12"/>
-      <c r="ES15" s="12"/>
-      <c r="ET15" s="24"/>
+      <c r="ES15" s="24"/>
+      <c r="ET15" s="12"/>
       <c r="EU15" s="12"/>
       <c r="EV15" s="12"/>
       <c r="EW15" s="12"/>
@@ -16340,8 +16295,8 @@
       <c r="FK15" s="12"/>
       <c r="FL15" s="12"/>
       <c r="FM15" s="12"/>
-      <c r="FN15" s="12"/>
-      <c r="FO15" s="24"/>
+      <c r="FN15" s="24"/>
+      <c r="FO15" s="12"/>
       <c r="FP15" s="12"/>
       <c r="FQ15" s="12"/>
       <c r="FR15" s="12"/>
@@ -16359,8 +16314,8 @@
       <c r="GD15" s="12"/>
       <c r="GE15" s="12"/>
       <c r="GF15" s="12"/>
-      <c r="GG15" s="12"/>
-      <c r="GH15" s="24"/>
+      <c r="GG15" s="24"/>
+      <c r="GH15" s="12"/>
       <c r="GI15" s="12"/>
       <c r="GJ15" s="12"/>
       <c r="GK15" s="12"/>
@@ -16381,8 +16336,8 @@
       <c r="GZ15" s="12"/>
       <c r="HA15" s="12"/>
       <c r="HB15" s="12"/>
-      <c r="HC15" s="12"/>
-      <c r="HD15" s="24"/>
+      <c r="HC15" s="24"/>
+      <c r="HD15" s="12"/>
       <c r="HE15" s="12"/>
       <c r="HF15" s="12"/>
       <c r="HG15" s="12"/>
@@ -16404,8 +16359,8 @@
       <c r="HW15" s="12"/>
       <c r="HX15" s="12"/>
       <c r="HY15" s="12"/>
-      <c r="HZ15" s="12"/>
-      <c r="IA15" s="24"/>
+      <c r="HZ15" s="24"/>
+      <c r="IA15" s="12"/>
       <c r="IB15" s="12"/>
       <c r="IC15" s="12"/>
       <c r="ID15" s="12"/>
@@ -16426,8 +16381,8 @@
       <c r="IS15" s="12"/>
       <c r="IT15" s="12"/>
       <c r="IU15" s="12"/>
-      <c r="IV15" s="12"/>
-      <c r="IW15" s="24"/>
+      <c r="IV15" s="24"/>
+      <c r="IW15" s="12"/>
       <c r="IX15" s="12"/>
       <c r="IY15" s="12"/>
       <c r="IZ15" s="12"/>
@@ -16448,8 +16403,8 @@
       <c r="JO15" s="12"/>
       <c r="JP15" s="12"/>
       <c r="JQ15" s="12"/>
-      <c r="JR15" s="12"/>
-      <c r="JS15" s="24"/>
+      <c r="JR15" s="24"/>
+      <c r="JS15" s="12"/>
       <c r="JT15" s="12"/>
       <c r="JU15" s="12"/>
       <c r="JV15" s="12"/>
@@ -16469,8 +16424,8 @@
       <c r="KJ15" s="12"/>
       <c r="KK15" s="12"/>
       <c r="KL15" s="12"/>
-      <c r="KM15" s="12"/>
-      <c r="KN15" s="24"/>
+      <c r="KM15" s="24"/>
+      <c r="KN15" s="12"/>
       <c r="KO15" s="12"/>
       <c r="KP15" s="12"/>
       <c r="KQ15" s="12"/>
@@ -16495,8 +16450,8 @@
       <c r="LJ15" s="12"/>
       <c r="LK15" s="12"/>
       <c r="LL15" s="12"/>
-      <c r="LM15" s="12"/>
-      <c r="LN15" s="24"/>
+      <c r="LM15" s="24"/>
+      <c r="LN15" s="12"/>
       <c r="LO15" s="12"/>
       <c r="LP15" s="12"/>
       <c r="LQ15" s="12"/>
@@ -16541,11 +16496,10 @@
       <c r="ND15" s="12"/>
       <c r="NE15" s="12"/>
       <c r="NF15" s="12"/>
-      <c r="NG15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -16672,7 +16626,7 @@
       <c r="DT16" s="12"/>
       <c r="DU16" s="12"/>
       <c r="DV16" s="12"/>
-      <c r="DW16" s="24"/>
+      <c r="DW16" s="12"/>
       <c r="DX16" s="12"/>
       <c r="DY16" s="12"/>
       <c r="DZ16" s="12"/>
@@ -16694,8 +16648,8 @@
       <c r="EP16" s="12"/>
       <c r="EQ16" s="12"/>
       <c r="ER16" s="12"/>
-      <c r="ES16" s="12"/>
-      <c r="ET16" s="24"/>
+      <c r="ES16" s="24"/>
+      <c r="ET16" s="12"/>
       <c r="EU16" s="12"/>
       <c r="EV16" s="12"/>
       <c r="EW16" s="12"/>
@@ -16715,8 +16669,8 @@
       <c r="FK16" s="12"/>
       <c r="FL16" s="12"/>
       <c r="FM16" s="12"/>
-      <c r="FN16" s="12"/>
-      <c r="FO16" s="24"/>
+      <c r="FN16" s="24"/>
+      <c r="FO16" s="12"/>
       <c r="FP16" s="12"/>
       <c r="FQ16" s="12"/>
       <c r="FR16" s="12"/>
@@ -16734,8 +16688,8 @@
       <c r="GD16" s="12"/>
       <c r="GE16" s="12"/>
       <c r="GF16" s="12"/>
-      <c r="GG16" s="12"/>
-      <c r="GH16" s="24"/>
+      <c r="GG16" s="24"/>
+      <c r="GH16" s="12"/>
       <c r="GI16" s="12"/>
       <c r="GJ16" s="12"/>
       <c r="GK16" s="12"/>
@@ -16756,8 +16710,8 @@
       <c r="GZ16" s="12"/>
       <c r="HA16" s="12"/>
       <c r="HB16" s="12"/>
-      <c r="HC16" s="12"/>
-      <c r="HD16" s="24"/>
+      <c r="HC16" s="24"/>
+      <c r="HD16" s="12"/>
       <c r="HE16" s="12"/>
       <c r="HF16" s="12"/>
       <c r="HG16" s="12"/>
@@ -16779,8 +16733,8 @@
       <c r="HW16" s="12"/>
       <c r="HX16" s="12"/>
       <c r="HY16" s="12"/>
-      <c r="HZ16" s="12"/>
-      <c r="IA16" s="24"/>
+      <c r="HZ16" s="24"/>
+      <c r="IA16" s="12"/>
       <c r="IB16" s="12"/>
       <c r="IC16" s="12"/>
       <c r="ID16" s="12"/>
@@ -16801,8 +16755,8 @@
       <c r="IS16" s="12"/>
       <c r="IT16" s="12"/>
       <c r="IU16" s="12"/>
-      <c r="IV16" s="12"/>
-      <c r="IW16" s="24"/>
+      <c r="IV16" s="24"/>
+      <c r="IW16" s="12"/>
       <c r="IX16" s="12"/>
       <c r="IY16" s="12"/>
       <c r="IZ16" s="12"/>
@@ -16823,8 +16777,8 @@
       <c r="JO16" s="12"/>
       <c r="JP16" s="12"/>
       <c r="JQ16" s="12"/>
-      <c r="JR16" s="12"/>
-      <c r="JS16" s="24"/>
+      <c r="JR16" s="24"/>
+      <c r="JS16" s="12"/>
       <c r="JT16" s="12"/>
       <c r="JU16" s="12"/>
       <c r="JV16" s="12"/>
@@ -16844,8 +16798,8 @@
       <c r="KJ16" s="12"/>
       <c r="KK16" s="12"/>
       <c r="KL16" s="12"/>
-      <c r="KM16" s="12"/>
-      <c r="KN16" s="24"/>
+      <c r="KM16" s="24"/>
+      <c r="KN16" s="12"/>
       <c r="KO16" s="12"/>
       <c r="KP16" s="12"/>
       <c r="KQ16" s="12"/>
@@ -16870,8 +16824,8 @@
       <c r="LJ16" s="12"/>
       <c r="LK16" s="12"/>
       <c r="LL16" s="12"/>
-      <c r="LM16" s="12"/>
-      <c r="LN16" s="24"/>
+      <c r="LM16" s="24"/>
+      <c r="LN16" s="12"/>
       <c r="LO16" s="12"/>
       <c r="LP16" s="12"/>
       <c r="LQ16" s="12"/>
@@ -16916,7 +16870,6 @@
       <c r="ND16" s="12"/>
       <c r="NE16" s="12"/>
       <c r="NF16" s="12"/>
-      <c r="NG16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25"/>
@@ -19883,6 +19836,7 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="O1:P1"/>
@@ -19916,65 +19870,64 @@
     <mergeCell ref="DJ1:DL1"/>
     <mergeCell ref="DM1:DN1"/>
     <mergeCell ref="DQ1:DR1"/>
-    <mergeCell ref="DV1:DW1"/>
-    <mergeCell ref="EA1:ED1"/>
-    <mergeCell ref="EH1:EI1"/>
-    <mergeCell ref="EK1:EL1"/>
-    <mergeCell ref="EM1:EN1"/>
-    <mergeCell ref="EO1:EP1"/>
-    <mergeCell ref="EQ1:ER1"/>
-    <mergeCell ref="ES1:ET1"/>
-    <mergeCell ref="EV1:EW1"/>
-    <mergeCell ref="EX1:EY1"/>
-    <mergeCell ref="EZ1:FB1"/>
-    <mergeCell ref="FJ1:FL1"/>
-    <mergeCell ref="FN1:FO1"/>
-    <mergeCell ref="FP1:FS1"/>
-    <mergeCell ref="FU1:FV1"/>
-    <mergeCell ref="FW1:FX1"/>
-    <mergeCell ref="FZ1:GA1"/>
-    <mergeCell ref="GD1:GE1"/>
-    <mergeCell ref="GG1:GH1"/>
-    <mergeCell ref="GI1:GK1"/>
-    <mergeCell ref="GO1:GP1"/>
-    <mergeCell ref="GR1:GT1"/>
-    <mergeCell ref="GV1:GY1"/>
-    <mergeCell ref="HC1:HD1"/>
-    <mergeCell ref="HE1:HG1"/>
-    <mergeCell ref="HH1:HJ1"/>
-    <mergeCell ref="HK1:HL1"/>
-    <mergeCell ref="HO1:HP1"/>
-    <mergeCell ref="HQ1:HU1"/>
-    <mergeCell ref="HV1:HX1"/>
-    <mergeCell ref="HZ1:IA1"/>
-    <mergeCell ref="IB1:IE1"/>
-    <mergeCell ref="IM1:IN1"/>
-    <mergeCell ref="IP1:IT1"/>
-    <mergeCell ref="IU1:IW1"/>
-    <mergeCell ref="IX1:IZ1"/>
-    <mergeCell ref="JB1:JF1"/>
-    <mergeCell ref="JH1:JI1"/>
-    <mergeCell ref="JJ1:JK1"/>
-    <mergeCell ref="JL1:JM1"/>
-    <mergeCell ref="JN1:JP1"/>
-    <mergeCell ref="JR1:JS1"/>
-    <mergeCell ref="JT1:JV1"/>
-    <mergeCell ref="JZ1:KA1"/>
-    <mergeCell ref="KC1:KE1"/>
-    <mergeCell ref="KF1:KG1"/>
-    <mergeCell ref="KH1:KI1"/>
-    <mergeCell ref="KL1:KN1"/>
-    <mergeCell ref="KO1:KP1"/>
-    <mergeCell ref="KR1:KS1"/>
-    <mergeCell ref="KU1:KV1"/>
-    <mergeCell ref="KX1:KZ1"/>
-    <mergeCell ref="LC1:LE1"/>
-    <mergeCell ref="LF1:LG1"/>
-    <mergeCell ref="LI1:LN1"/>
-    <mergeCell ref="LP1:LR1"/>
-    <mergeCell ref="LT1:LU1"/>
+    <mergeCell ref="DZ1:EC1"/>
+    <mergeCell ref="EG1:EH1"/>
+    <mergeCell ref="EJ1:EK1"/>
+    <mergeCell ref="EL1:EM1"/>
+    <mergeCell ref="EN1:EO1"/>
+    <mergeCell ref="EP1:EQ1"/>
+    <mergeCell ref="ER1:ES1"/>
+    <mergeCell ref="EU1:EV1"/>
+    <mergeCell ref="EW1:EX1"/>
+    <mergeCell ref="EY1:FA1"/>
+    <mergeCell ref="FI1:FK1"/>
+    <mergeCell ref="FM1:FN1"/>
+    <mergeCell ref="FO1:FR1"/>
+    <mergeCell ref="FT1:FU1"/>
+    <mergeCell ref="FV1:FW1"/>
+    <mergeCell ref="FY1:FZ1"/>
+    <mergeCell ref="GC1:GD1"/>
+    <mergeCell ref="GF1:GG1"/>
+    <mergeCell ref="GH1:GJ1"/>
+    <mergeCell ref="GN1:GO1"/>
+    <mergeCell ref="GQ1:GS1"/>
+    <mergeCell ref="GU1:GX1"/>
+    <mergeCell ref="HB1:HC1"/>
+    <mergeCell ref="HD1:HF1"/>
+    <mergeCell ref="HG1:HI1"/>
+    <mergeCell ref="HJ1:HK1"/>
+    <mergeCell ref="HN1:HO1"/>
+    <mergeCell ref="HP1:HT1"/>
+    <mergeCell ref="HU1:HW1"/>
+    <mergeCell ref="HY1:HZ1"/>
+    <mergeCell ref="IA1:ID1"/>
+    <mergeCell ref="IL1:IM1"/>
+    <mergeCell ref="IO1:IS1"/>
+    <mergeCell ref="IT1:IV1"/>
+    <mergeCell ref="IW1:IY1"/>
+    <mergeCell ref="JA1:JE1"/>
+    <mergeCell ref="JG1:JH1"/>
+    <mergeCell ref="JI1:JJ1"/>
+    <mergeCell ref="JK1:JL1"/>
+    <mergeCell ref="JM1:JO1"/>
+    <mergeCell ref="JQ1:JR1"/>
+    <mergeCell ref="JS1:JU1"/>
+    <mergeCell ref="JY1:JZ1"/>
+    <mergeCell ref="KB1:KD1"/>
+    <mergeCell ref="KE1:KF1"/>
+    <mergeCell ref="KG1:KH1"/>
+    <mergeCell ref="KK1:KM1"/>
+    <mergeCell ref="KN1:KO1"/>
+    <mergeCell ref="KQ1:KR1"/>
+    <mergeCell ref="KT1:KU1"/>
+    <mergeCell ref="KW1:KY1"/>
+    <mergeCell ref="LB1:LD1"/>
+    <mergeCell ref="LE1:LF1"/>
+    <mergeCell ref="LH1:LM1"/>
+    <mergeCell ref="LO1:LQ1"/>
+    <mergeCell ref="LS1:LT1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:LU14">
+  <conditionalFormatting sqref="B3:LT14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
